--- a/Code/Results/Cases/Case_2_88/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_88/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.676163606245495</v>
+        <v>1.01642412646811</v>
       </c>
       <c r="C2">
-        <v>0.5080981894770389</v>
+        <v>0.397697122200384</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.04775172917599113</v>
+        <v>0.1434344796069061</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>0.144312192095434</v>
+        <v>0.3482483691223237</v>
       </c>
       <c r="H2">
-        <v>0.1707231242622527</v>
+        <v>0.5312191985089427</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1494718261424524</v>
+        <v>0.187685287646012</v>
       </c>
       <c r="M2">
-        <v>0.4373991232396648</v>
+        <v>0.2130373181354841</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.6128893390780803</v>
+        <v>1.695424113027528</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.329743061850593</v>
+        <v>0.9052719095669772</v>
       </c>
       <c r="C3">
-        <v>0.4729673257243974</v>
+        <v>0.386533692453412</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.05092964198680561</v>
+        <v>0.145521296762097</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.1469981034635452</v>
+        <v>0.355185999970459</v>
       </c>
       <c r="H3">
-        <v>0.1788444574486618</v>
+        <v>0.5388386736436885</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1355253704377404</v>
+        <v>0.1849634506432523</v>
       </c>
       <c r="M3">
-        <v>0.3809521916003078</v>
+        <v>0.1957259501154809</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.6352049101584782</v>
+        <v>1.725824444783484</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.117060853269095</v>
+        <v>0.8368595318659118</v>
       </c>
       <c r="C4">
-        <v>0.4515470594614897</v>
+        <v>0.3797393369040662</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.05299822408615462</v>
+        <v>0.146878514165989</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.1495588865949742</v>
+        <v>0.3598434649888915</v>
       </c>
       <c r="H4">
-        <v>0.1844034338904521</v>
+        <v>0.5438455276547955</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1271137103401401</v>
+        <v>0.1833815078344117</v>
       </c>
       <c r="M4">
-        <v>0.3463498988922993</v>
+        <v>0.1851061718096787</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.6520289292201937</v>
+        <v>1.74601247791513</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.030373296391247</v>
+        <v>0.8089415427449467</v>
       </c>
       <c r="C5">
-        <v>0.4428535180618098</v>
+        <v>0.3769860179966713</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0538701298505937</v>
+        <v>0.1474506911843021</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.1508197893580707</v>
+        <v>0.3618411684525782</v>
       </c>
       <c r="H5">
-        <v>0.1868074494574223</v>
+        <v>0.5459684202143364</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1237215606091979</v>
+        <v>0.1827593691587879</v>
       </c>
       <c r="M5">
-        <v>0.3322589240383138</v>
+        <v>0.1807812096036869</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.659633754767242</v>
+        <v>1.754621369473909</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.015977168689346</v>
+        <v>0.8043034610475956</v>
       </c>
       <c r="C6">
-        <v>0.441412033536551</v>
+        <v>0.376529773846471</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.05401664109825643</v>
+        <v>0.1475468547240014</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.1510419523033413</v>
+        <v>0.3621789023932038</v>
       </c>
       <c r="H6">
-        <v>0.18721486146476</v>
+        <v>0.546325910190042</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1231603823635368</v>
+        <v>0.1826574253747779</v>
       </c>
       <c r="M6">
-        <v>0.3299195925846448</v>
+        <v>0.1800632239389728</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.6609407341411782</v>
+        <v>1.756073928629462</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.115891856290489</v>
+        <v>0.8364831769713987</v>
       </c>
       <c r="C7">
-        <v>0.4514296750416236</v>
+        <v>0.379702141729922</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0530098664553284</v>
+        <v>0.1468861533925199</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.1495750267817186</v>
+        <v>0.3598700031891866</v>
       </c>
       <c r="H7">
-        <v>0.1844353005212085</v>
+        <v>0.5438738234974636</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1270678213199616</v>
+        <v>0.1833730262000728</v>
       </c>
       <c r="M7">
-        <v>0.3461598292913592</v>
+        <v>0.1850478325889</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.6521285049390144</v>
+        <v>1.746127034166008</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.556698794468446</v>
+        <v>0.9781341190138164</v>
       </c>
       <c r="C8">
-        <v>0.4959523843950535</v>
+        <v>0.3938357102232715</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.04882277750307307</v>
+        <v>0.1441382687121811</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.1450417770720307</v>
+        <v>0.3505577570554479</v>
       </c>
       <c r="H8">
-        <v>0.173401312119779</v>
+        <v>0.5337781993219934</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1446301349473771</v>
+        <v>0.1867283076238664</v>
       </c>
       <c r="M8">
-        <v>0.4179217556978188</v>
+        <v>0.2070665677236079</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.6199134585637012</v>
+        <v>1.705589851522404</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.422458583305172</v>
+        <v>1.254533533221604</v>
       </c>
       <c r="C9">
-        <v>0.5845748288351729</v>
+        <v>0.4220146491887533</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.04156899251378099</v>
+        <v>0.1393512690111021</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.1439472468977243</v>
+        <v>0.3354640258774353</v>
       </c>
       <c r="H9">
-        <v>0.1565542597093526</v>
+        <v>0.516588400464812</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1803895287063</v>
+        <v>0.1940139906361935</v>
       </c>
       <c r="M9">
-        <v>0.5593145349035495</v>
+        <v>0.2503093371135137</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.5832249073623501</v>
+        <v>1.638201985529378</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.061156510499416</v>
+        <v>1.456686851178517</v>
       </c>
       <c r="C10">
-        <v>0.6506763669029851</v>
+        <v>0.4429845164912933</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.03686062328064721</v>
+        <v>0.1362000049274494</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.1487181556677086</v>
+        <v>0.3263216607411508</v>
       </c>
       <c r="H10">
-        <v>0.147460650521829</v>
+        <v>0.5055505426671587</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2076419186656153</v>
+        <v>0.1997947818802288</v>
       </c>
       <c r="M10">
-        <v>0.6639414066678597</v>
+        <v>0.2821072673195886</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.5749224878480135</v>
+        <v>1.59610984010186</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.352725873524548</v>
+        <v>1.548437453016049</v>
       </c>
       <c r="C11">
-        <v>0.6810092428130758</v>
+        <v>0.4525790983999798</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.03486222962973085</v>
+        <v>0.1348456150258757</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.1522936805670767</v>
+        <v>0.3225887326768273</v>
       </c>
       <c r="H11">
-        <v>0.1441227765032025</v>
+        <v>0.5008750856532913</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2202942589584609</v>
+        <v>0.2025170967008307</v>
       </c>
       <c r="M11">
-        <v>0.7117825781949279</v>
+        <v>0.2965766990427667</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.5757884334254868</v>
+        <v>1.578579784243288</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.463321022719185</v>
+        <v>1.583149148501036</v>
       </c>
       <c r="C12">
-        <v>0.6925373967821429</v>
+        <v>0.4562199653991286</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.03412689992630646</v>
+        <v>0.1343441085881603</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.1538671275788346</v>
+        <v>0.3212367060141474</v>
       </c>
       <c r="H12">
-        <v>0.1429814081118579</v>
+        <v>0.4991543670064544</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2251257323229794</v>
+        <v>0.2035612280134984</v>
       </c>
       <c r="M12">
-        <v>0.7299413023438035</v>
+        <v>0.3020562721202964</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.5768370905700095</v>
+        <v>1.572174943303992</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.439493565239559</v>
+        <v>1.575674831717834</v>
       </c>
       <c r="C13">
-        <v>0.6900526794808854</v>
+        <v>0.4554355066397591</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.03428430070705801</v>
+        <v>0.1344516113438445</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.153518206652322</v>
+        <v>0.3215251468909983</v>
       </c>
       <c r="H13">
-        <v>0.1432216401386768</v>
+        <v>0.4995227398037585</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2240833350135603</v>
+        <v>0.2033357674247043</v>
       </c>
       <c r="M13">
-        <v>0.7260284979647409</v>
+        <v>0.3008761391301391</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.5765783037020356</v>
+        <v>1.573543947295818</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.361820689020362</v>
+        <v>1.551293863584874</v>
       </c>
       <c r="C14">
-        <v>0.6819568105028111</v>
+        <v>0.4528784842133291</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.03480129967769507</v>
+        <v>0.1348041279308708</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.1524186265174876</v>
+        <v>0.3224762653386932</v>
       </c>
       <c r="H14">
-        <v>0.1440263719061718</v>
+        <v>0.5007325231701785</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2206909177119627</v>
+        <v>0.2026027328478364</v>
       </c>
       <c r="M14">
-        <v>0.7132756176553556</v>
+        <v>0.2970275023553768</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.5758599451854138</v>
+        <v>1.578048171873007</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.314268944619073</v>
+        <v>1.536355553303395</v>
       </c>
       <c r="C15">
-        <v>0.6770034166986818</v>
+        <v>0.4513132146979331</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.03512078996418433</v>
+        <v>0.1350215352031832</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.151774220531891</v>
+        <v>0.323066877538615</v>
       </c>
       <c r="H15">
-        <v>0.1445354997009787</v>
+        <v>0.5014800344637962</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2186183251556599</v>
+        <v>0.2021554515416994</v>
       </c>
       <c r="M15">
-        <v>0.7054698358118117</v>
+        <v>0.2946701325894381</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.5755154298172727</v>
+        <v>1.580837559012636</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.042125449358082</v>
+        <v>1.450686330994074</v>
       </c>
       <c r="C16">
-        <v>0.6486996630429758</v>
+        <v>0.4423585710762268</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.03699417630604751</v>
+        <v>0.1362901092224329</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.1485142245771911</v>
+        <v>0.3265742135856655</v>
       </c>
       <c r="H16">
-        <v>0.1476955130472959</v>
+        <v>0.5058630567966134</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2068204957655837</v>
+        <v>0.1996187299396581</v>
       </c>
       <c r="M16">
-        <v>0.6608204037387253</v>
+        <v>0.2811617170658423</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.574963780282431</v>
+        <v>1.597288091507608</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.875461617116173</v>
+        <v>1.398075781790055</v>
       </c>
       <c r="C17">
-        <v>0.6314062803018601</v>
+        <v>0.4368791018263778</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.03818073057655391</v>
+        <v>0.1370886011735578</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.1468862527308517</v>
+        <v>0.3288351660608342</v>
       </c>
       <c r="H17">
-        <v>0.149844027987001</v>
+        <v>0.5086404899182853</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1996507460305423</v>
+        <v>0.1980862040852998</v>
       </c>
       <c r="M17">
-        <v>0.6334971819002746</v>
+        <v>0.2728756397297829</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.575851168278632</v>
+        <v>1.607794880380652</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.779694835699047</v>
+        <v>1.367795946284161</v>
       </c>
       <c r="C18">
-        <v>0.6214840800364811</v>
+        <v>0.4337326798971901</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.03887665929583184</v>
+        <v>0.1375553217494909</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.1460810429692856</v>
+        <v>0.3301756837246685</v>
       </c>
       <c r="H18">
-        <v>0.1511544958193554</v>
+        <v>0.5102705331250732</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1955506746185733</v>
+        <v>0.1972134560360672</v>
       </c>
       <c r="M18">
-        <v>0.6178042839186659</v>
+        <v>0.2681101396712933</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.57679518430092</v>
+        <v>1.613990343928322</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.747284883130874</v>
+        <v>1.357540404707379</v>
       </c>
       <c r="C19">
-        <v>0.6181286858137582</v>
+        <v>0.4326682631985648</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.03911457625107695</v>
+        <v>0.1377146249571702</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.145830427541263</v>
+        <v>0.330636434264413</v>
       </c>
       <c r="H19">
-        <v>0.1516107999528984</v>
+        <v>0.5108280241587906</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1941664385319228</v>
+        <v>0.19691945828977</v>
       </c>
       <c r="M19">
-        <v>0.6124946331557837</v>
+        <v>0.2664967072507238</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.577187724506544</v>
+        <v>1.616114144884094</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.893193294080788</v>
+        <v>1.403678312217778</v>
       </c>
       <c r="C20">
-        <v>0.6332446276281303</v>
+        <v>0.4374618625268738</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.03805302183301462</v>
+        <v>0.1370028294441837</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.1470458565311006</v>
+        <v>0.3285903337723539</v>
       </c>
       <c r="H20">
-        <v>0.1496075294604537</v>
+        <v>0.5083414595038818</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2004114916269373</v>
+        <v>0.1982484420443171</v>
       </c>
       <c r="M20">
-        <v>0.6364033878151574</v>
+        <v>0.2737576643630888</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.5757114534597889</v>
+        <v>1.606660653323402</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.384629787019549</v>
+        <v>1.558456037079338</v>
       </c>
       <c r="C21">
-        <v>0.6843335973474609</v>
+        <v>0.4536293399414149</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.03464885674932738</v>
+        <v>0.1347002767052189</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.1527354988263738</v>
+        <v>0.3221952259305425</v>
       </c>
       <c r="H21">
-        <v>0.1437866107313326</v>
+        <v>0.5003758290902951</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2216862288527608</v>
+        <v>0.2028176838071971</v>
       </c>
       <c r="M21">
-        <v>0.7170202413624551</v>
+        <v>0.2981579342931369</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.5760509424569165</v>
+        <v>1.576718831173622</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.70690474321151</v>
+        <v>1.659423204060033</v>
       </c>
       <c r="C22">
-        <v>0.7179686155896547</v>
+        <v>0.4642399043168837</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.03254928060150486</v>
+        <v>0.1332617042318747</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.1577422130951618</v>
+        <v>0.3183745628815089</v>
       </c>
       <c r="H22">
-        <v>0.1407009596508857</v>
+        <v>0.4954599868755594</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2358273045600185</v>
+        <v>0.2058811464469272</v>
       </c>
       <c r="M22">
-        <v>0.7699582523166129</v>
+        <v>0.314106601129474</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.5805011614213385</v>
+        <v>1.55851096678262</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.53478749795687</v>
+        <v>1.605553103914474</v>
       </c>
       <c r="C23">
-        <v>0.6999931316116772</v>
+        <v>0.4585729159505547</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.03365813194702105</v>
+        <v>0.1340234355511842</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.1549461004582895</v>
+        <v>0.3203807848205642</v>
       </c>
       <c r="H23">
-        <v>0.1422793759806069</v>
+        <v>0.4980570947196696</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2282570142254343</v>
+        <v>0.2042390770263154</v>
       </c>
       <c r="M23">
-        <v>0.7416789042615974</v>
+        <v>0.3055944484641486</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.5777205930426135</v>
+        <v>1.568104078243053</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.885176648476033</v>
+        <v>1.401145511873949</v>
       </c>
       <c r="C24">
-        <v>0.632413448813594</v>
+        <v>0.437198384559224</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.0381107161468125</v>
+        <v>0.1370415829918168</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.1469732937514721</v>
+        <v>0.3287008958010631</v>
       </c>
       <c r="H24">
-        <v>0.1497142166114429</v>
+        <v>0.5084765475561071</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2000674905592348</v>
+        <v>0.1981750683381733</v>
       </c>
       <c r="M24">
-        <v>0.6350894440926851</v>
+        <v>0.2733589063720956</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.5757732711741284</v>
+        <v>1.60717295471116</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.187925799250195</v>
+        <v>1.179915728125422</v>
       </c>
       <c r="C25">
-        <v>0.5604408033665038</v>
+        <v>0.4143435418645822</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.04342511291018591</v>
+        <v>0.1405819784845279</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.1433268668565688</v>
+        <v>0.3392065140422247</v>
       </c>
       <c r="H25">
-        <v>0.1605627865059205</v>
+        <v>0.5209593418374894</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1705569327466989</v>
+        <v>0.1919676871614584</v>
       </c>
       <c r="M25">
-        <v>0.5209590650232272</v>
+        <v>0.2386053687456027</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.5900651147891551</v>
+        <v>1.655132284126296</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_88/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_88/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.01642412646811</v>
+        <v>2.676163606245666</v>
       </c>
       <c r="C2">
-        <v>0.397697122200384</v>
+        <v>0.5080981894772094</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1434344796069061</v>
+        <v>0.04775172917598525</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.3482483691223237</v>
+        <v>0.1443121920955122</v>
       </c>
       <c r="H2">
-        <v>0.5312191985089427</v>
+        <v>0.1707231242622598</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.187685287646012</v>
+        <v>0.1494718261424524</v>
       </c>
       <c r="M2">
-        <v>0.2130373181354841</v>
+        <v>0.4373991232396577</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.695424113027528</v>
+        <v>0.6128893390781087</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9052719095669772</v>
+        <v>2.329743061850706</v>
       </c>
       <c r="C3">
-        <v>0.386533692453412</v>
+        <v>0.4729673257243689</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.145521296762097</v>
+        <v>0.05092964198674765</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.355185999970459</v>
+        <v>0.1469981034634031</v>
       </c>
       <c r="H3">
-        <v>0.5388386736436885</v>
+        <v>0.1788444574487755</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1849634506432523</v>
+        <v>0.1355253704377404</v>
       </c>
       <c r="M3">
-        <v>0.1957259501154809</v>
+        <v>0.3809521916003078</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.725824444783484</v>
+        <v>0.635204910158464</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8368595318659118</v>
+        <v>2.117060853269265</v>
       </c>
       <c r="C4">
-        <v>0.3797393369040662</v>
+        <v>0.4515470594617739</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.146878514165989</v>
+        <v>0.05299822408618809</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.3598434649888915</v>
+        <v>0.149558886595031</v>
       </c>
       <c r="H4">
-        <v>0.5438455276547955</v>
+        <v>0.1844034338904521</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1833815078344117</v>
+        <v>0.1271137103400264</v>
       </c>
       <c r="M4">
-        <v>0.1851061718096787</v>
+        <v>0.3463498988923064</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.74601247791513</v>
+        <v>0.6520289292201369</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8089415427449467</v>
+        <v>2.030373296391247</v>
       </c>
       <c r="C5">
-        <v>0.3769860179966713</v>
+        <v>0.4428535180618667</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1474506911843021</v>
+        <v>0.05387012985059242</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.3618411684525782</v>
+        <v>0.1508197893580672</v>
       </c>
       <c r="H5">
-        <v>0.5459684202143364</v>
+        <v>0.1868074494573086</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1827593691587879</v>
+        <v>0.1237215606092121</v>
       </c>
       <c r="M5">
-        <v>0.1807812096036869</v>
+        <v>0.3322589240383138</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.754621369473909</v>
+        <v>0.659633754767242</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8043034610475956</v>
+        <v>2.015977168689176</v>
       </c>
       <c r="C6">
-        <v>0.376529773846471</v>
+        <v>0.4414120335368636</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1475468547240014</v>
+        <v>0.05401664109819665</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.3621789023932038</v>
+        <v>0.1510419523032773</v>
       </c>
       <c r="H6">
-        <v>0.546325910190042</v>
+        <v>0.18721486146476</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1826574253747779</v>
+        <v>0.1231603823635439</v>
       </c>
       <c r="M6">
-        <v>0.1800632239389728</v>
+        <v>0.3299195925846448</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.756073928629462</v>
+        <v>0.6609407341412492</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8364831769713987</v>
+        <v>2.115891856290489</v>
       </c>
       <c r="C7">
-        <v>0.379702141729922</v>
+        <v>0.4514296750415667</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1468861533925199</v>
+        <v>0.05300986645530248</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.3598700031891866</v>
+        <v>0.1495750267817186</v>
       </c>
       <c r="H7">
-        <v>0.5438738234974636</v>
+        <v>0.1844353005212085</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1833730262000728</v>
+        <v>0.1270678213199119</v>
       </c>
       <c r="M7">
-        <v>0.1850478325889</v>
+        <v>0.3461598292913592</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.746127034166008</v>
+        <v>0.6521285049389434</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9781341190138164</v>
+        <v>2.556698794468161</v>
       </c>
       <c r="C8">
-        <v>0.3938357102232715</v>
+        <v>0.4959523843949682</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1441382687121811</v>
+        <v>0.04882277750313224</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.3505577570554479</v>
+        <v>0.1450417770720307</v>
       </c>
       <c r="H8">
-        <v>0.5337781993219934</v>
+        <v>0.1734013121198998</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1867283076238664</v>
+        <v>0.1446301349475618</v>
       </c>
       <c r="M8">
-        <v>0.2070665677236079</v>
+        <v>0.4179217556978259</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.705589851522404</v>
+        <v>0.6199134585637296</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.254533533221604</v>
+        <v>3.422458583305058</v>
       </c>
       <c r="C9">
-        <v>0.4220146491887533</v>
+        <v>0.5845748288347181</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1393512690111021</v>
+        <v>0.04156899251375412</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.3354640258774353</v>
+        <v>0.1439472468976604</v>
       </c>
       <c r="H9">
-        <v>0.516588400464812</v>
+        <v>0.1565542597093597</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1940139906361935</v>
+        <v>0.1803895287062076</v>
       </c>
       <c r="M9">
-        <v>0.2503093371135137</v>
+        <v>0.5593145349035495</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.638201985529378</v>
+        <v>0.5832249073622933</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.456686851178517</v>
+        <v>4.061156510499529</v>
       </c>
       <c r="C10">
-        <v>0.4429845164912933</v>
+        <v>0.6506763669030704</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1362000049274494</v>
+        <v>0.03686062328065309</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.3263216607411508</v>
+        <v>0.1487181556677655</v>
       </c>
       <c r="H10">
-        <v>0.5055505426671587</v>
+        <v>0.1474606505218361</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1997947818802288</v>
+        <v>0.2076419186656153</v>
       </c>
       <c r="M10">
-        <v>0.2821072673195886</v>
+        <v>0.6639414066678668</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.59610984010186</v>
+        <v>0.5749224878479993</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.548437453016049</v>
+        <v>4.35272587352415</v>
       </c>
       <c r="C11">
-        <v>0.4525790983999798</v>
+        <v>0.6810092428130474</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1348456150258757</v>
+        <v>0.03486222962978802</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.3225887326768273</v>
+        <v>0.1522936805670767</v>
       </c>
       <c r="H11">
-        <v>0.5008750856532913</v>
+        <v>0.1441227765031954</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2025170967008307</v>
+        <v>0.2202942589583898</v>
       </c>
       <c r="M11">
-        <v>0.2965766990427667</v>
+        <v>0.7117825781949207</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.578579784243288</v>
+        <v>0.5757884334255436</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.583149148501036</v>
+        <v>4.463321022719015</v>
       </c>
       <c r="C12">
-        <v>0.4562199653991286</v>
+        <v>0.6925373967823703</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1343441085881603</v>
+        <v>0.034126899926335</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.3212367060141474</v>
+        <v>0.1538671275788417</v>
       </c>
       <c r="H12">
-        <v>0.4991543670064544</v>
+        <v>0.1429814081119716</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2035612280134984</v>
+        <v>0.2251257323229936</v>
       </c>
       <c r="M12">
-        <v>0.3020562721202964</v>
+        <v>0.7299413023438177</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.572174943303992</v>
+        <v>0.5768370905700095</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.575674831717834</v>
+        <v>4.439493565239786</v>
       </c>
       <c r="C13">
-        <v>0.4554355066397591</v>
+        <v>0.690052679480857</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1344516113438445</v>
+        <v>0.03428430070705502</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.3215251468909983</v>
+        <v>0.1535182066523291</v>
       </c>
       <c r="H13">
-        <v>0.4995227398037585</v>
+        <v>0.1432216401387834</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2033357674247043</v>
+        <v>0.2240833350135176</v>
       </c>
       <c r="M13">
-        <v>0.3008761391301391</v>
+        <v>0.7260284979647409</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.573543947295818</v>
+        <v>0.5765783037021066</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.551293863584874</v>
+        <v>4.361820689020306</v>
       </c>
       <c r="C14">
-        <v>0.4528784842133291</v>
+        <v>0.6819568105025837</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1348041279308708</v>
+        <v>0.03480129967772216</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.3224762653386932</v>
+        <v>0.1524186265175018</v>
       </c>
       <c r="H14">
-        <v>0.5007325231701785</v>
+        <v>0.1440263719062855</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2026027328478364</v>
+        <v>0.2206909177119485</v>
       </c>
       <c r="M14">
-        <v>0.2970275023553768</v>
+        <v>0.7132756176553627</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.578048171873007</v>
+        <v>0.5758599451854138</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.536355553303395</v>
+        <v>4.314268944618789</v>
       </c>
       <c r="C15">
-        <v>0.4513132146979331</v>
+        <v>0.6770034166989376</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1350215352031832</v>
+        <v>0.03512078996418388</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.323066877538615</v>
+        <v>0.1517742205318982</v>
       </c>
       <c r="H15">
-        <v>0.5014800344637962</v>
+        <v>0.1445354997009787</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2021554515416994</v>
+        <v>0.2186183251556741</v>
       </c>
       <c r="M15">
-        <v>0.2946701325894381</v>
+        <v>0.7054698358118117</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.580837559012636</v>
+        <v>0.5755154298172727</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.450686330994074</v>
+        <v>4.042125449358196</v>
       </c>
       <c r="C16">
-        <v>0.4423585710762268</v>
+        <v>0.6486996630432316</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1362901092224329</v>
+        <v>0.03699417630602242</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.3265742135856655</v>
+        <v>0.1485142245771982</v>
       </c>
       <c r="H16">
-        <v>0.5058630567966134</v>
+        <v>0.1476955130472959</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1996187299396581</v>
+        <v>0.2068204957657116</v>
       </c>
       <c r="M16">
-        <v>0.2811617170658423</v>
+        <v>0.6608204037387395</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.597288091507608</v>
+        <v>0.574963780282431</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.398075781790055</v>
+        <v>3.8754616171164</v>
       </c>
       <c r="C17">
-        <v>0.4368791018263778</v>
+        <v>0.6314062803018885</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1370886011735578</v>
+        <v>0.03818073057654647</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.3288351660608342</v>
+        <v>0.1468862527308588</v>
       </c>
       <c r="H17">
-        <v>0.5086404899182853</v>
+        <v>0.1498440279871289</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1980862040852998</v>
+        <v>0.199650746030585</v>
       </c>
       <c r="M17">
-        <v>0.2728756397297829</v>
+        <v>0.6334971819002746</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.607794880380652</v>
+        <v>0.575851168278632</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.367795946284161</v>
+        <v>3.779694835699274</v>
       </c>
       <c r="C18">
-        <v>0.4337326798971901</v>
+        <v>0.6214840800367085</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1375553217494909</v>
+        <v>0.03887665929580308</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.3301756837246685</v>
+        <v>0.1460810429692359</v>
       </c>
       <c r="H18">
-        <v>0.5102705331250732</v>
+        <v>0.151154495819469</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1972134560360672</v>
+        <v>0.1955506746185733</v>
       </c>
       <c r="M18">
-        <v>0.2681101396712933</v>
+        <v>0.6178042839186517</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.613990343928322</v>
+        <v>0.5767951843009342</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.357540404707379</v>
+        <v>3.747284883130533</v>
       </c>
       <c r="C19">
-        <v>0.4326682631985648</v>
+        <v>0.6181286858135877</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1377146249571702</v>
+        <v>0.03911457625104742</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.330636434264413</v>
+        <v>0.1458304275413269</v>
       </c>
       <c r="H19">
-        <v>0.5108280241587906</v>
+        <v>0.1516107999528984</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.19691945828977</v>
+        <v>0.1941664385319939</v>
       </c>
       <c r="M19">
-        <v>0.2664967072507238</v>
+        <v>0.6124946331557766</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.616114144884094</v>
+        <v>0.577187724506544</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.403678312217778</v>
+        <v>3.893193294080845</v>
       </c>
       <c r="C20">
-        <v>0.4374618625268738</v>
+        <v>0.6332446276283292</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1370028294441837</v>
+        <v>0.03805302183297388</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.3285903337723539</v>
+        <v>0.1470458565310935</v>
       </c>
       <c r="H20">
-        <v>0.5083414595038818</v>
+        <v>0.1496075294604537</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1982484420443171</v>
+        <v>0.2004114916269231</v>
       </c>
       <c r="M20">
-        <v>0.2737576643630888</v>
+        <v>0.6364033878151218</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.606660653323402</v>
+        <v>0.5757114534597747</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.558456037079338</v>
+        <v>4.384629787019605</v>
       </c>
       <c r="C21">
-        <v>0.4536293399414149</v>
+        <v>0.6843335973479725</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1347002767052189</v>
+        <v>0.03464885674932816</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.3221952259305425</v>
+        <v>0.1527354988263099</v>
       </c>
       <c r="H21">
-        <v>0.5003758290902951</v>
+        <v>0.1437866107312189</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2028176838071971</v>
+        <v>0.2216862288527324</v>
       </c>
       <c r="M21">
-        <v>0.2981579342931369</v>
+        <v>0.7170202413624551</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.576718831173622</v>
+        <v>0.5760509424569165</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.659423204060033</v>
+        <v>4.70690474321168</v>
       </c>
       <c r="C22">
-        <v>0.4642399043168837</v>
+        <v>0.7179686155894842</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1332617042318747</v>
+        <v>0.03254928060150719</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.3183745628815089</v>
+        <v>0.1577422130952115</v>
       </c>
       <c r="H22">
-        <v>0.4954599868755594</v>
+        <v>0.1407009596508857</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2058811464469272</v>
+        <v>0.2358273045600185</v>
       </c>
       <c r="M22">
-        <v>0.314106601129474</v>
+        <v>0.7699582523166058</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.55851096678262</v>
+        <v>0.5805011614213953</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.605553103914474</v>
+        <v>4.534787497956586</v>
       </c>
       <c r="C23">
-        <v>0.4585729159505547</v>
+        <v>0.6999931316119046</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1340234355511842</v>
+        <v>0.03365813194705147</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.3203807848205642</v>
+        <v>0.1549461004582895</v>
       </c>
       <c r="H23">
-        <v>0.4980570947196696</v>
+        <v>0.1422793759806069</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2042390770263154</v>
+        <v>0.2282570142252496</v>
       </c>
       <c r="M23">
-        <v>0.3055944484641486</v>
+        <v>0.7416789042616116</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.568104078243053</v>
+        <v>0.5777205930426135</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.401145511873949</v>
+        <v>3.885176648475692</v>
       </c>
       <c r="C24">
-        <v>0.437198384559224</v>
+        <v>0.632413448813395</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1370415829918168</v>
+        <v>0.03811071614681683</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.3287008958010631</v>
+        <v>0.1469732937514081</v>
       </c>
       <c r="H24">
-        <v>0.5084765475561071</v>
+        <v>0.1497142166115637</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1981750683381733</v>
+        <v>0.2000674905591353</v>
       </c>
       <c r="M24">
-        <v>0.2733589063720956</v>
+        <v>0.6350894440926851</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.60717295471116</v>
+        <v>0.5757732711741426</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.179915728125422</v>
+        <v>3.187925799249854</v>
       </c>
       <c r="C25">
-        <v>0.4143435418645822</v>
+        <v>0.560440803366447</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1405819784845279</v>
+        <v>0.04342511291021256</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.3392065140422247</v>
+        <v>0.1433268668565049</v>
       </c>
       <c r="H25">
-        <v>0.5209593418374894</v>
+        <v>0.1605627865059205</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1919676871614584</v>
+        <v>0.1705569327466776</v>
       </c>
       <c r="M25">
-        <v>0.2386053687456027</v>
+        <v>0.5209590650232343</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.655132284126296</v>
+        <v>0.5900651147891551</v>
       </c>
     </row>
   </sheetData>
